--- a/fer-service/emotion_data/emotions_summary.xlsx
+++ b/fer-service/emotion_data/emotions_summary.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F236"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -467,47 +467,47 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1755924535.333539</v>
+        <v>1758616442.86792</v>
       </c>
       <c r="B2" t="n">
-        <v>1755924536.333539</v>
+        <v>1758616443.86792</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2025-08-23 10:18:55</t>
+          <t>2025-09-23 14:04:02</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>angry</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>74.72842407226562</v>
+        <v>214.2156829833984</v>
       </c>
       <c r="F2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1755924536.333539</v>
+        <v>1758616443.86792</v>
       </c>
       <c r="B3" t="n">
-        <v>1755924537.333539</v>
+        <v>1758616444.86792</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2025-08-23 10:18:56</t>
+          <t>2025-09-23 14:04:03</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>angry</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>67.76951599121094</v>
+        <v>213.9383239746094</v>
       </c>
       <c r="F3" t="n">
         <v>2</v>
@@ -515,50 +515,5594 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1755924537.333539</v>
+        <v>1758616444.86792</v>
       </c>
       <c r="B4" t="n">
-        <v>1755924538.333539</v>
+        <v>1758616445.86792</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2025-08-23 10:18:57</t>
+          <t>2025-09-23 14:04:04</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>happy</t>
+          <t>angry</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>79.68603515625</v>
+        <v>224.8465576171875</v>
       </c>
       <c r="F4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1755924538.333539</v>
+        <v>1758616445.86792</v>
       </c>
       <c r="B5" t="n">
-        <v>1755924539.333539</v>
+        <v>1758616446.86792</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2025-08-23 10:18:58</t>
+          <t>2025-09-23 14:04:05</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>sad</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>217.0451049804688</v>
+      </c>
+      <c r="F5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>1758616446.86792</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1758616447.86792</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>2025-09-23 14:04:06</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>angry</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>224.8991546630859</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>1758616447.86792</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1758616448.86792</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>2025-09-23 14:04:07</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>angry</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>107.0664978027344</v>
+      </c>
+      <c r="F7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>1758616448.86792</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1758616449.86792</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>2025-09-23 14:04:08</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>63.3731689453125</v>
+      </c>
+      <c r="F8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>1758616449.86792</v>
+      </c>
+      <c r="B9" t="n">
+        <v>1758616450.86792</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>2025-09-23 14:04:09</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>60.20848846435547</v>
+      </c>
+      <c r="F9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>1758616450.86792</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1758616451.86792</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>2025-09-23 14:04:10</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
           <t>happy</t>
         </is>
       </c>
-      <c r="E5" t="n">
-        <v>250.6765899658203</v>
-      </c>
-      <c r="F5" t="n">
-        <v>2</v>
+      <c r="E10" t="n">
+        <v>396.667236328125</v>
+      </c>
+      <c r="F10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>1758616451.86792</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1758616452.86792</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>2025-09-23 14:04:11</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>happy</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>341.0237426757812</v>
+      </c>
+      <c r="F11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>1758616452.86792</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1758616453.86792</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>2025-09-23 14:04:12</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>happy</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>96.56694793701172</v>
+      </c>
+      <c r="F12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>1758616453.86792</v>
+      </c>
+      <c r="B13" t="n">
+        <v>1758616454.86792</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>2025-09-23 14:04:13</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>happy</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>338.7054443359375</v>
+      </c>
+      <c r="F13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>1758616454.86792</v>
+      </c>
+      <c r="B14" t="n">
+        <v>1758616455.86792</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>2025-09-23 14:04:14</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>happy</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>149.1947479248047</v>
+      </c>
+      <c r="F14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>1758616455.86792</v>
+      </c>
+      <c r="B15" t="n">
+        <v>1758616456.86792</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>2025-09-23 14:04:15</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>surprise</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>54.38624954223633</v>
+      </c>
+      <c r="F15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>1758616456.86792</v>
+      </c>
+      <c r="B16" t="n">
+        <v>1758616457.86792</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>2025-09-23 14:04:16</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>happy</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>388.8670349121094</v>
+      </c>
+      <c r="F16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>1758616469.86792</v>
+      </c>
+      <c r="B17" t="n">
+        <v>1758616470.86792</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>2025-09-23 14:04:29</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>fear</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>74.30916595458984</v>
+      </c>
+      <c r="F17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>1758616470.86792</v>
+      </c>
+      <c r="B18" t="n">
+        <v>1758616471.86792</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>2025-09-23 14:04:30</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>fear</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>219.3262329101562</v>
+      </c>
+      <c r="F18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>1758616471.86792</v>
+      </c>
+      <c r="B19" t="n">
+        <v>1758616472.86792</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>2025-09-23 14:04:31</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>sad</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>340.0754089355469</v>
+      </c>
+      <c r="F19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>1758616472.86792</v>
+      </c>
+      <c r="B20" t="n">
+        <v>1758616473.86792</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>2025-09-23 14:04:32</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>52.41051483154297</v>
+      </c>
+      <c r="F20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>1758616473.86792</v>
+      </c>
+      <c r="B21" t="n">
+        <v>1758616474.86792</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>2025-09-23 14:04:33</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>fear</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>46.26530838012695</v>
+      </c>
+      <c r="F21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>1758616474.86792</v>
+      </c>
+      <c r="B22" t="n">
+        <v>1758616475.86792</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>2025-09-23 14:04:34</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>happy</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>398.6023864746094</v>
+      </c>
+      <c r="F22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>1758616475.86792</v>
+      </c>
+      <c r="B23" t="n">
+        <v>1758616476.86792</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>2025-09-23 14:04:35</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>happy</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>282.0291442871094</v>
+      </c>
+      <c r="F23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>1758616476.86792</v>
+      </c>
+      <c r="B24" t="n">
+        <v>1758616477.86792</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>2025-09-23 14:04:36</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>happy</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>398.6371459960938</v>
+      </c>
+      <c r="F24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>1758616477.86792</v>
+      </c>
+      <c r="B25" t="n">
+        <v>1758616478.86792</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>2025-09-23 14:04:37</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>happy</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>270.1209716796875</v>
+      </c>
+      <c r="F25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>1758616478.86792</v>
+      </c>
+      <c r="B26" t="n">
+        <v>1758616479.86792</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>2025-09-23 14:04:38</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>happy</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>305.9584655761719</v>
+      </c>
+      <c r="F26" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>1758616479.86792</v>
+      </c>
+      <c r="B27" t="n">
+        <v>1758616480.86792</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>2025-09-23 14:04:39</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>happy</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>107.6477813720703</v>
+      </c>
+      <c r="F27" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>1758616480.86792</v>
+      </c>
+      <c r="B28" t="n">
+        <v>1758616481.86792</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>2025-09-23 14:04:40</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>65.50106048583984</v>
+      </c>
+      <c r="F28" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>1758616481.86792</v>
+      </c>
+      <c r="B29" t="n">
+        <v>1758616482.86792</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>2025-09-23 14:04:41</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>happy</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>67.66179656982422</v>
+      </c>
+      <c r="F29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>1758616482.86792</v>
+      </c>
+      <c r="B30" t="n">
+        <v>1758616483.86792</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>2025-09-23 14:04:42</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>happy</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>187.1103057861328</v>
+      </c>
+      <c r="F30" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>1758616483.86792</v>
+      </c>
+      <c r="B31" t="n">
+        <v>1758616484.86792</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>2025-09-23 14:04:43</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>sad</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>123.9154968261719</v>
+      </c>
+      <c r="F31" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>1758616484.86792</v>
+      </c>
+      <c r="B32" t="n">
+        <v>1758616485.86792</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>2025-09-23 14:04:44</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>happy</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>87.81197357177734</v>
+      </c>
+      <c r="F32" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>1758616485.86792</v>
+      </c>
+      <c r="B33" t="n">
+        <v>1758616486.86792</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>2025-09-23 14:04:45</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>happy</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>209.3502960205078</v>
+      </c>
+      <c r="F33" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>1758616486.86792</v>
+      </c>
+      <c r="B34" t="n">
+        <v>1758616487.86792</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>2025-09-23 14:04:46</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>happy</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>399.7196655273438</v>
+      </c>
+      <c r="F34" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>1758616487.86792</v>
+      </c>
+      <c r="B35" t="n">
+        <v>1758616488.86792</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>2025-09-23 14:04:47</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>happy</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>278.1145935058594</v>
+      </c>
+      <c r="F35" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>1758616488.86792</v>
+      </c>
+      <c r="B36" t="n">
+        <v>1758616489.86792</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>2025-09-23 14:04:48</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>happy</t>
+        </is>
+      </c>
+      <c r="E36" t="n">
+        <v>90.15201568603516</v>
+      </c>
+      <c r="F36" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>1758616489.86792</v>
+      </c>
+      <c r="B37" t="n">
+        <v>1758616490.86792</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>2025-09-23 14:04:49</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>happy</t>
+        </is>
+      </c>
+      <c r="E37" t="n">
+        <v>148.489013671875</v>
+      </c>
+      <c r="F37" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>1758616490.86792</v>
+      </c>
+      <c r="B38" t="n">
+        <v>1758616491.86792</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>2025-09-23 14:04:50</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>sad</t>
+        </is>
+      </c>
+      <c r="E38" t="n">
+        <v>181.7252044677734</v>
+      </c>
+      <c r="F38" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>1758616491.86792</v>
+      </c>
+      <c r="B39" t="n">
+        <v>1758616492.86792</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>2025-09-23 14:04:51</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>sad</t>
+        </is>
+      </c>
+      <c r="E39" t="n">
+        <v>222.8694305419922</v>
+      </c>
+      <c r="F39" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>1758616492.86792</v>
+      </c>
+      <c r="B40" t="n">
+        <v>1758616493.86792</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>2025-09-23 14:04:52</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>happy</t>
+        </is>
+      </c>
+      <c r="E40" t="n">
+        <v>166.5145874023438</v>
+      </c>
+      <c r="F40" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>1758616493.86792</v>
+      </c>
+      <c r="B41" t="n">
+        <v>1758616494.86792</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>2025-09-23 14:04:53</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>happy</t>
+        </is>
+      </c>
+      <c r="E41" t="n">
+        <v>137.3864593505859</v>
+      </c>
+      <c r="F41" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>1758616494.86792</v>
+      </c>
+      <c r="B42" t="n">
+        <v>1758616495.86792</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>2025-09-23 14:04:54</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>happy</t>
+        </is>
+      </c>
+      <c r="E42" t="n">
+        <v>284.8489685058594</v>
+      </c>
+      <c r="F42" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>1758616495.86792</v>
+      </c>
+      <c r="B43" t="n">
+        <v>1758616496.86792</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>2025-09-23 14:04:55</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>sad</t>
+        </is>
+      </c>
+      <c r="E43" t="n">
+        <v>111.0625762939453</v>
+      </c>
+      <c r="F43" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>1758616496.86792</v>
+      </c>
+      <c r="B44" t="n">
+        <v>1758616497.86792</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>2025-09-23 14:04:56</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>angry</t>
+        </is>
+      </c>
+      <c r="E44" t="n">
+        <v>105.4006805419922</v>
+      </c>
+      <c r="F44" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>1758616497.86792</v>
+      </c>
+      <c r="B45" t="n">
+        <v>1758616498.86792</v>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>2025-09-23 14:04:57</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>angry</t>
+        </is>
+      </c>
+      <c r="E45" t="n">
+        <v>84.91339111328125</v>
+      </c>
+      <c r="F45" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>1758616498.86792</v>
+      </c>
+      <c r="B46" t="n">
+        <v>1758616499.86792</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>2025-09-23 14:04:58</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>angry</t>
+        </is>
+      </c>
+      <c r="E46" t="n">
+        <v>91.13426971435547</v>
+      </c>
+      <c r="F46" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>1758616499.86792</v>
+      </c>
+      <c r="B47" t="n">
+        <v>1758616500.86792</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>2025-09-23 14:04:59</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>surprise</t>
+        </is>
+      </c>
+      <c r="E47" t="n">
+        <v>83.93904876708984</v>
+      </c>
+      <c r="F47" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>1758616500.86792</v>
+      </c>
+      <c r="B48" t="n">
+        <v>1758616501.86792</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>2025-09-23 14:05:00</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>surprise</t>
+        </is>
+      </c>
+      <c r="E48" t="n">
+        <v>141.455810546875</v>
+      </c>
+      <c r="F48" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>1758616501.86792</v>
+      </c>
+      <c r="B49" t="n">
+        <v>1758616502.86792</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>2025-09-23 14:05:01</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>fear</t>
+        </is>
+      </c>
+      <c r="E49" t="n">
+        <v>56.86832427978516</v>
+      </c>
+      <c r="F49" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>1758616502.86792</v>
+      </c>
+      <c r="B50" t="n">
+        <v>1758616503.86792</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>2025-09-23 14:05:02</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>fear</t>
+        </is>
+      </c>
+      <c r="E50" t="n">
+        <v>128.5906066894531</v>
+      </c>
+      <c r="F50" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>1758616503.86792</v>
+      </c>
+      <c r="B51" t="n">
+        <v>1758616504.86792</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>2025-09-23 14:05:03</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>fear</t>
+        </is>
+      </c>
+      <c r="E51" t="n">
+        <v>174.3763732910156</v>
+      </c>
+      <c r="F51" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>1758616504.86792</v>
+      </c>
+      <c r="B52" t="n">
+        <v>1758616505.86792</v>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>2025-09-23 14:05:04</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>surprise</t>
+        </is>
+      </c>
+      <c r="E52" t="n">
+        <v>208.8672180175781</v>
+      </c>
+      <c r="F52" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>1758616505.86792</v>
+      </c>
+      <c r="B53" t="n">
+        <v>1758616506.86792</v>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>2025-09-23 14:05:05</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>surprise</t>
+        </is>
+      </c>
+      <c r="E53" t="n">
+        <v>182.4566955566406</v>
+      </c>
+      <c r="F53" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>1758616506.86792</v>
+      </c>
+      <c r="B54" t="n">
+        <v>1758616507.86792</v>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>2025-09-23 14:05:06</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>happy</t>
+        </is>
+      </c>
+      <c r="E54" t="n">
+        <v>310.5413818359375</v>
+      </c>
+      <c r="F54" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>1758616507.86792</v>
+      </c>
+      <c r="B55" t="n">
+        <v>1758616508.86792</v>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>2025-09-23 14:05:07</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>surprise</t>
+        </is>
+      </c>
+      <c r="E55" t="n">
+        <v>118.7045974731445</v>
+      </c>
+      <c r="F55" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>1758616509.86792</v>
+      </c>
+      <c r="B56" t="n">
+        <v>1758616510.86792</v>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>2025-09-23 14:05:09</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>happy</t>
+        </is>
+      </c>
+      <c r="E56" t="n">
+        <v>187.1150512695312</v>
+      </c>
+      <c r="F56" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>1758616510.86792</v>
+      </c>
+      <c r="B57" t="n">
+        <v>1758616511.86792</v>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>2025-09-23 14:05:10</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>surprise</t>
+        </is>
+      </c>
+      <c r="E57" t="n">
+        <v>144.0271301269531</v>
+      </c>
+      <c r="F57" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>1758616511.86792</v>
+      </c>
+      <c r="B58" t="n">
+        <v>1758616512.86792</v>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>2025-09-23 14:05:11</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>surprise</t>
+        </is>
+      </c>
+      <c r="E58" t="n">
+        <v>215.8388214111328</v>
+      </c>
+      <c r="F58" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>1758616512.86792</v>
+      </c>
+      <c r="B59" t="n">
+        <v>1758616513.86792</v>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>2025-09-23 14:05:12</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>surprise</t>
+        </is>
+      </c>
+      <c r="E59" t="n">
+        <v>201.9293518066406</v>
+      </c>
+      <c r="F59" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>1758616513.86792</v>
+      </c>
+      <c r="B60" t="n">
+        <v>1758616514.86792</v>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>2025-09-23 14:05:13</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>happy</t>
+        </is>
+      </c>
+      <c r="E60" t="n">
+        <v>298.5877380371094</v>
+      </c>
+      <c r="F60" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>1758616514.86792</v>
+      </c>
+      <c r="B61" t="n">
+        <v>1758616515.86792</v>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>2025-09-23 14:05:14</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>happy</t>
+        </is>
+      </c>
+      <c r="E61" t="n">
+        <v>398.9542846679688</v>
+      </c>
+      <c r="F61" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>1758616515.86792</v>
+      </c>
+      <c r="B62" t="n">
+        <v>1758616516.86792</v>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>2025-09-23 14:05:15</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>happy</t>
+        </is>
+      </c>
+      <c r="E62" t="n">
+        <v>345.3909301757812</v>
+      </c>
+      <c r="F62" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>1758616516.86792</v>
+      </c>
+      <c r="B63" t="n">
+        <v>1758616517.86792</v>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>2025-09-23 14:05:16</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>happy</t>
+        </is>
+      </c>
+      <c r="E63" t="n">
+        <v>337.9331970214844</v>
+      </c>
+      <c r="F63" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>1758616517.86792</v>
+      </c>
+      <c r="B64" t="n">
+        <v>1758616518.86792</v>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>2025-09-23 14:05:17</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>happy</t>
+        </is>
+      </c>
+      <c r="E64" t="n">
+        <v>398.2450561523438</v>
+      </c>
+      <c r="F64" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>1758616518.86792</v>
+      </c>
+      <c r="B65" t="n">
+        <v>1758616519.86792</v>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>2025-09-23 14:05:18</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>happy</t>
+        </is>
+      </c>
+      <c r="E65" t="n">
+        <v>311.6220703125</v>
+      </c>
+      <c r="F65" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>1758616519.86792</v>
+      </c>
+      <c r="B66" t="n">
+        <v>1758616520.86792</v>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>2025-09-23 14:05:19</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>happy</t>
+        </is>
+      </c>
+      <c r="E66" t="n">
+        <v>398.8665771484375</v>
+      </c>
+      <c r="F66" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>1758616520.86792</v>
+      </c>
+      <c r="B67" t="n">
+        <v>1758616521.86792</v>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>2025-09-23 14:05:20</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>happy</t>
+        </is>
+      </c>
+      <c r="E67" t="n">
+        <v>399.5856323242188</v>
+      </c>
+      <c r="F67" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>1758616521.86792</v>
+      </c>
+      <c r="B68" t="n">
+        <v>1758616522.86792</v>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>2025-09-23 14:05:21</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>happy</t>
+        </is>
+      </c>
+      <c r="E68" t="n">
+        <v>399.9913024902344</v>
+      </c>
+      <c r="F68" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>1758616743.86792</v>
+      </c>
+      <c r="B69" t="n">
+        <v>1758616744.86792</v>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>2025-09-23 14:09:03</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>fear</t>
+        </is>
+      </c>
+      <c r="E69" t="n">
+        <v>194.3720397949219</v>
+      </c>
+      <c r="F69" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>1758616749.86792</v>
+      </c>
+      <c r="B70" t="n">
+        <v>1758616750.86792</v>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>2025-09-23 14:09:09</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>sad</t>
+        </is>
+      </c>
+      <c r="E70" t="n">
+        <v>365.46923828125</v>
+      </c>
+      <c r="F70" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>1758616750.86792</v>
+      </c>
+      <c r="B71" t="n">
+        <v>1758616751.86792</v>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>2025-09-23 14:09:10</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>angry</t>
+        </is>
+      </c>
+      <c r="E71" t="n">
+        <v>89.96566009521484</v>
+      </c>
+      <c r="F71" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>1758616751.86792</v>
+      </c>
+      <c r="B72" t="n">
+        <v>1758616752.86792</v>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>2025-09-23 14:09:11</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="E72" t="n">
+        <v>74.88288879394531</v>
+      </c>
+      <c r="F72" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>1758616752.86792</v>
+      </c>
+      <c r="B73" t="n">
+        <v>1758616753.86792</v>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>2025-09-23 14:09:12</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>angry</t>
+        </is>
+      </c>
+      <c r="E73" t="n">
+        <v>85.36586761474609</v>
+      </c>
+      <c r="F73" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>1758616753.86792</v>
+      </c>
+      <c r="B74" t="n">
+        <v>1758616754.86792</v>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>2025-09-23 14:09:13</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>angry</t>
+        </is>
+      </c>
+      <c r="E74" t="n">
+        <v>170.3485565185547</v>
+      </c>
+      <c r="F74" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>1758616754.86792</v>
+      </c>
+      <c r="B75" t="n">
+        <v>1758616755.86792</v>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>2025-09-23 14:09:14</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>angry</t>
+        </is>
+      </c>
+      <c r="E75" t="n">
+        <v>100.8139572143555</v>
+      </c>
+      <c r="F75" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>1758616755.86792</v>
+      </c>
+      <c r="B76" t="n">
+        <v>1758616756.86792</v>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>2025-09-23 14:09:15</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>angry</t>
+        </is>
+      </c>
+      <c r="E76" t="n">
+        <v>224.617919921875</v>
+      </c>
+      <c r="F76" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>1758616756.86792</v>
+      </c>
+      <c r="B77" t="n">
+        <v>1758616757.86792</v>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>2025-09-23 14:09:16</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>happy</t>
+        </is>
+      </c>
+      <c r="E77" t="n">
+        <v>73.15350341796875</v>
+      </c>
+      <c r="F77" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>1758616757.86792</v>
+      </c>
+      <c r="B78" t="n">
+        <v>1758616758.86792</v>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>2025-09-23 14:09:17</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>angry</t>
+        </is>
+      </c>
+      <c r="E78" t="n">
+        <v>205.6824188232422</v>
+      </c>
+      <c r="F78" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>1758616758.86792</v>
+      </c>
+      <c r="B79" t="n">
+        <v>1758616759.86792</v>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>2025-09-23 14:09:18</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="E79" t="n">
+        <v>59.9003791809082</v>
+      </c>
+      <c r="F79" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>1758616759.86792</v>
+      </c>
+      <c r="B80" t="n">
+        <v>1758616760.86792</v>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>2025-09-23 14:09:19</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="E80" t="n">
+        <v>74.34757232666016</v>
+      </c>
+      <c r="F80" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>1758616760.86792</v>
+      </c>
+      <c r="B81" t="n">
+        <v>1758616761.86792</v>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>2025-09-23 14:09:20</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="E81" t="n">
+        <v>74.61807250976562</v>
+      </c>
+      <c r="F81" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>1758616761.86792</v>
+      </c>
+      <c r="B82" t="n">
+        <v>1758616762.86792</v>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>2025-09-23 14:09:21</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>sad</t>
+        </is>
+      </c>
+      <c r="E82" t="n">
+        <v>196.8709411621094</v>
+      </c>
+      <c r="F82" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>1758616765.86792</v>
+      </c>
+      <c r="B83" t="n">
+        <v>1758616766.86792</v>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>2025-09-23 14:09:25</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>happy</t>
+        </is>
+      </c>
+      <c r="E83" t="n">
+        <v>385.9320678710938</v>
+      </c>
+      <c r="F83" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>1758616766.86792</v>
+      </c>
+      <c r="B84" t="n">
+        <v>1758616767.86792</v>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>2025-09-23 14:09:26</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>happy</t>
+        </is>
+      </c>
+      <c r="E84" t="n">
+        <v>215.3724060058594</v>
+      </c>
+      <c r="F84" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>1758616767.86792</v>
+      </c>
+      <c r="B85" t="n">
+        <v>1758616768.86792</v>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>2025-09-23 14:09:27</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>happy</t>
+        </is>
+      </c>
+      <c r="E85" t="n">
+        <v>194.7255249023438</v>
+      </c>
+      <c r="F85" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>1758616768.86792</v>
+      </c>
+      <c r="B86" t="n">
+        <v>1758616769.86792</v>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>2025-09-23 14:09:28</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>happy</t>
+        </is>
+      </c>
+      <c r="E86" t="n">
+        <v>227.8069305419922</v>
+      </c>
+      <c r="F86" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>1758616769.86792</v>
+      </c>
+      <c r="B87" t="n">
+        <v>1758616770.86792</v>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>2025-09-23 14:09:29</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>happy</t>
+        </is>
+      </c>
+      <c r="E87" t="n">
+        <v>122.3107376098633</v>
+      </c>
+      <c r="F87" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>1758616770.86792</v>
+      </c>
+      <c r="B88" t="n">
+        <v>1758616771.86792</v>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>2025-09-23 14:09:30</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>happy</t>
+        </is>
+      </c>
+      <c r="E88" t="n">
+        <v>146.3445434570312</v>
+      </c>
+      <c r="F88" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>1758616771.86792</v>
+      </c>
+      <c r="B89" t="n">
+        <v>1758616772.86792</v>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>2025-09-23 14:09:31</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="E89" t="n">
+        <v>63.96035003662109</v>
+      </c>
+      <c r="F89" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>1758616772.86792</v>
+      </c>
+      <c r="B90" t="n">
+        <v>1758616773.86792</v>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>2025-09-23 14:09:32</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>happy</t>
+        </is>
+      </c>
+      <c r="E90" t="n">
+        <v>51.70076370239258</v>
+      </c>
+      <c r="F90" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>1758616773.86792</v>
+      </c>
+      <c r="B91" t="n">
+        <v>1758616774.86792</v>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>2025-09-23 14:09:33</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>sad</t>
+        </is>
+      </c>
+      <c r="E91" t="n">
+        <v>62.85978698730469</v>
+      </c>
+      <c r="F91" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>1758616774.86792</v>
+      </c>
+      <c r="B92" t="n">
+        <v>1758616775.86792</v>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>2025-09-23 14:09:34</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>angry</t>
+        </is>
+      </c>
+      <c r="E92" t="n">
+        <v>125.0280303955078</v>
+      </c>
+      <c r="F92" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>1758616776.86792</v>
+      </c>
+      <c r="B93" t="n">
+        <v>1758616777.86792</v>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>2025-09-23 14:09:36</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>angry</t>
+        </is>
+      </c>
+      <c r="E93" t="n">
+        <v>95.36804962158203</v>
+      </c>
+      <c r="F93" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>1758616777.86792</v>
+      </c>
+      <c r="B94" t="n">
+        <v>1758616778.86792</v>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>2025-09-23 14:09:37</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>angry</t>
+        </is>
+      </c>
+      <c r="E94" t="n">
+        <v>65.98489379882812</v>
+      </c>
+      <c r="F94" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>1758616778.86792</v>
+      </c>
+      <c r="B95" t="n">
+        <v>1758616779.86792</v>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>2025-09-23 14:09:38</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="E95" t="n">
+        <v>69.03058624267578</v>
+      </c>
+      <c r="F95" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>1758616779.86792</v>
+      </c>
+      <c r="B96" t="n">
+        <v>1758616780.86792</v>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>2025-09-23 14:09:39</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="E96" t="n">
+        <v>66.37092590332031</v>
+      </c>
+      <c r="F96" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>1758616780.86792</v>
+      </c>
+      <c r="B97" t="n">
+        <v>1758616781.86792</v>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>2025-09-23 14:09:40</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="E97" t="n">
+        <v>73.09201049804688</v>
+      </c>
+      <c r="F97" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>1758616781.86792</v>
+      </c>
+      <c r="B98" t="n">
+        <v>1758616782.86792</v>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>2025-09-23 14:09:41</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>angry</t>
+        </is>
+      </c>
+      <c r="E98" t="n">
+        <v>178.8578186035156</v>
+      </c>
+      <c r="F98" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>1758616782.86792</v>
+      </c>
+      <c r="B99" t="n">
+        <v>1758616783.86792</v>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>2025-09-23 14:09:42</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="E99" t="n">
+        <v>72.87936401367188</v>
+      </c>
+      <c r="F99" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>1758616783.86792</v>
+      </c>
+      <c r="B100" t="n">
+        <v>1758616784.86792</v>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>2025-09-23 14:09:43</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="E100" t="n">
+        <v>66.55146026611328</v>
+      </c>
+      <c r="F100" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>1758616784.86792</v>
+      </c>
+      <c r="B101" t="n">
+        <v>1758616785.86792</v>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>2025-09-23 14:09:44</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="E101" t="n">
+        <v>62.63140106201172</v>
+      </c>
+      <c r="F101" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>1758616785.86792</v>
+      </c>
+      <c r="B102" t="n">
+        <v>1758616786.86792</v>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>2025-09-23 14:09:45</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>sad</t>
+        </is>
+      </c>
+      <c r="E102" t="n">
+        <v>215.5316619873047</v>
+      </c>
+      <c r="F102" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>1758616786.86792</v>
+      </c>
+      <c r="B103" t="n">
+        <v>1758616787.86792</v>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>2025-09-23 14:09:46</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>angry</t>
+        </is>
+      </c>
+      <c r="E103" t="n">
+        <v>77.93067169189453</v>
+      </c>
+      <c r="F103" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>1758616787.86792</v>
+      </c>
+      <c r="B104" t="n">
+        <v>1758616788.86792</v>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>2025-09-23 14:09:47</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>sad</t>
+        </is>
+      </c>
+      <c r="E104" t="n">
+        <v>132.7917175292969</v>
+      </c>
+      <c r="F104" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>1758616788.86792</v>
+      </c>
+      <c r="B105" t="n">
+        <v>1758616789.86792</v>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>2025-09-23 14:09:48</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>angry</t>
+        </is>
+      </c>
+      <c r="E105" t="n">
+        <v>109.0634994506836</v>
+      </c>
+      <c r="F105" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>1758616789.86792</v>
+      </c>
+      <c r="B106" t="n">
+        <v>1758616790.86792</v>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>2025-09-23 14:09:49</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>angry</t>
+        </is>
+      </c>
+      <c r="E106" t="n">
+        <v>75.60679626464844</v>
+      </c>
+      <c r="F106" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>1758616790.86792</v>
+      </c>
+      <c r="B107" t="n">
+        <v>1758616791.86792</v>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>2025-09-23 14:09:50</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="E107" t="n">
+        <v>73.04728698730469</v>
+      </c>
+      <c r="F107" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>1758616791.86792</v>
+      </c>
+      <c r="B108" t="n">
+        <v>1758616792.86792</v>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>2025-09-23 14:09:51</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>angry</t>
+        </is>
+      </c>
+      <c r="E108" t="n">
+        <v>114.6973724365234</v>
+      </c>
+      <c r="F108" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>1758616792.86792</v>
+      </c>
+      <c r="B109" t="n">
+        <v>1758616793.86792</v>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>2025-09-23 14:09:52</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="E109" t="n">
+        <v>63.38367462158203</v>
+      </c>
+      <c r="F109" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>1758616793.86792</v>
+      </c>
+      <c r="B110" t="n">
+        <v>1758616794.86792</v>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>2025-09-23 14:09:53</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>angry</t>
+        </is>
+      </c>
+      <c r="E110" t="n">
+        <v>75.52861022949219</v>
+      </c>
+      <c r="F110" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>1758616796.86792</v>
+      </c>
+      <c r="B111" t="n">
+        <v>1758616797.86792</v>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>2025-09-23 14:09:56</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="E111" t="n">
+        <v>74.97260284423828</v>
+      </c>
+      <c r="F111" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>1758616797.86792</v>
+      </c>
+      <c r="B112" t="n">
+        <v>1758616798.86792</v>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>2025-09-23 14:09:57</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>angry</t>
+        </is>
+      </c>
+      <c r="E112" t="n">
+        <v>175.4157104492188</v>
+      </c>
+      <c r="F112" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>1758616798.86792</v>
+      </c>
+      <c r="B113" t="n">
+        <v>1758616799.86792</v>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>2025-09-23 14:09:58</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="E113" t="n">
+        <v>62.7213134765625</v>
+      </c>
+      <c r="F113" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>1758616799.86792</v>
+      </c>
+      <c r="B114" t="n">
+        <v>1758616800.86792</v>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>2025-09-23 14:09:59</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="E114" t="n">
+        <v>73.33673858642578</v>
+      </c>
+      <c r="F114" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>1758616800.86792</v>
+      </c>
+      <c r="B115" t="n">
+        <v>1758616801.86792</v>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>2025-09-23 14:10:00</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="E115" t="n">
+        <v>74.01063537597656</v>
+      </c>
+      <c r="F115" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>1758616801.86792</v>
+      </c>
+      <c r="B116" t="n">
+        <v>1758616802.86792</v>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>2025-09-23 14:10:01</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>angry</t>
+        </is>
+      </c>
+      <c r="E116" t="n">
+        <v>108.0667190551758</v>
+      </c>
+      <c r="F116" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>1758616802.86792</v>
+      </c>
+      <c r="B117" t="n">
+        <v>1758616803.86792</v>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>2025-09-23 14:10:02</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>angry</t>
+        </is>
+      </c>
+      <c r="E117" t="n">
+        <v>151.8174438476562</v>
+      </c>
+      <c r="F117" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>1758616803.86792</v>
+      </c>
+      <c r="B118" t="n">
+        <v>1758616804.86792</v>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>2025-09-23 14:10:03</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>angry</t>
+        </is>
+      </c>
+      <c r="E118" t="n">
+        <v>73.71983337402344</v>
+      </c>
+      <c r="F118" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>1758616804.86792</v>
+      </c>
+      <c r="B119" t="n">
+        <v>1758616805.86792</v>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>2025-09-23 14:10:04</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>fear</t>
+        </is>
+      </c>
+      <c r="E119" t="n">
+        <v>107.4413146972656</v>
+      </c>
+      <c r="F119" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>1758616806.86792</v>
+      </c>
+      <c r="B120" t="n">
+        <v>1758616807.86792</v>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>2025-09-23 14:10:06</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>happy</t>
+        </is>
+      </c>
+      <c r="E120" t="n">
+        <v>164.9604949951172</v>
+      </c>
+      <c r="F120" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>1758616807.86792</v>
+      </c>
+      <c r="B121" t="n">
+        <v>1758616808.86792</v>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>2025-09-23 14:10:07</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>sad</t>
+        </is>
+      </c>
+      <c r="E121" t="n">
+        <v>115.7217254638672</v>
+      </c>
+      <c r="F121" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>1758616808.86792</v>
+      </c>
+      <c r="B122" t="n">
+        <v>1758616809.86792</v>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>2025-09-23 14:10:08</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>angry</t>
+        </is>
+      </c>
+      <c r="E122" t="n">
+        <v>141.9799499511719</v>
+      </c>
+      <c r="F122" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>1758616809.86792</v>
+      </c>
+      <c r="B123" t="n">
+        <v>1758616810.86792</v>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>2025-09-23 14:10:09</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="E123" t="n">
+        <v>70.80145263671875</v>
+      </c>
+      <c r="F123" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>1758616810.86792</v>
+      </c>
+      <c r="B124" t="n">
+        <v>1758616811.86792</v>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>2025-09-23 14:10:10</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="E124" t="n">
+        <v>69.07602691650391</v>
+      </c>
+      <c r="F124" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>1758616811.86792</v>
+      </c>
+      <c r="B125" t="n">
+        <v>1758616812.86792</v>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>2025-09-23 14:10:11</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>angry</t>
+        </is>
+      </c>
+      <c r="E125" t="n">
+        <v>107.411865234375</v>
+      </c>
+      <c r="F125" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>1758616812.86792</v>
+      </c>
+      <c r="B126" t="n">
+        <v>1758616813.86792</v>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>2025-09-23 14:10:12</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>sad</t>
+        </is>
+      </c>
+      <c r="E126" t="n">
+        <v>175.6511383056641</v>
+      </c>
+      <c r="F126" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>1758616816.86792</v>
+      </c>
+      <c r="B127" t="n">
+        <v>1758616817.86792</v>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>2025-09-23 14:10:16</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="E127" t="n">
+        <v>69.81309509277344</v>
+      </c>
+      <c r="F127" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>1758616819.86792</v>
+      </c>
+      <c r="B128" t="n">
+        <v>1758616820.86792</v>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>2025-09-23 14:10:19</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>happy</t>
+        </is>
+      </c>
+      <c r="E128" t="n">
+        <v>104.105827331543</v>
+      </c>
+      <c r="F128" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>1758616820.86792</v>
+      </c>
+      <c r="B129" t="n">
+        <v>1758616821.86792</v>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>2025-09-23 14:10:20</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="E129" t="n">
+        <v>68.06534576416016</v>
+      </c>
+      <c r="F129" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>1758616821.86792</v>
+      </c>
+      <c r="B130" t="n">
+        <v>1758616822.86792</v>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>2025-09-23 14:10:21</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>angry</t>
+        </is>
+      </c>
+      <c r="E130" t="n">
+        <v>65.18751525878906</v>
+      </c>
+      <c r="F130" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>1758616822.86792</v>
+      </c>
+      <c r="B131" t="n">
+        <v>1758616823.86792</v>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>2025-09-23 14:10:22</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>sad</t>
+        </is>
+      </c>
+      <c r="E131" t="n">
+        <v>90.34199523925781</v>
+      </c>
+      <c r="F131" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>1758616823.86792</v>
+      </c>
+      <c r="B132" t="n">
+        <v>1758616824.86792</v>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>2025-09-23 14:10:23</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="E132" t="n">
+        <v>70.76085662841797</v>
+      </c>
+      <c r="F132" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>1758616824.86792</v>
+      </c>
+      <c r="B133" t="n">
+        <v>1758616825.86792</v>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>2025-09-23 14:10:24</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>angry</t>
+        </is>
+      </c>
+      <c r="E133" t="n">
+        <v>177.1805725097656</v>
+      </c>
+      <c r="F133" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>1758616825.86792</v>
+      </c>
+      <c r="B134" t="n">
+        <v>1758616826.86792</v>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>2025-09-23 14:10:25</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="E134" t="n">
+        <v>74.85591125488281</v>
+      </c>
+      <c r="F134" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>1758616826.86792</v>
+      </c>
+      <c r="B135" t="n">
+        <v>1758616827.86792</v>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>2025-09-23 14:10:26</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>angry</t>
+        </is>
+      </c>
+      <c r="E135" t="n">
+        <v>72.54756164550781</v>
+      </c>
+      <c r="F135" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>1758616827.86792</v>
+      </c>
+      <c r="B136" t="n">
+        <v>1758616828.86792</v>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>2025-09-23 14:10:27</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>angry</t>
+        </is>
+      </c>
+      <c r="E136" t="n">
+        <v>106.5709991455078</v>
+      </c>
+      <c r="F136" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>1758616828.86792</v>
+      </c>
+      <c r="B137" t="n">
+        <v>1758616829.86792</v>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>2025-09-23 14:10:28</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>angry</t>
+        </is>
+      </c>
+      <c r="E137" t="n">
+        <v>102.473991394043</v>
+      </c>
+      <c r="F137" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>1758616829.86792</v>
+      </c>
+      <c r="B138" t="n">
+        <v>1758616830.86792</v>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>2025-09-23 14:10:29</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="E138" t="n">
+        <v>74.87559509277344</v>
+      </c>
+      <c r="F138" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>1758616843.86792</v>
+      </c>
+      <c r="B139" t="n">
+        <v>1758616844.86792</v>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>2025-09-23 14:10:43</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="E139" t="n">
+        <v>73.31757354736328</v>
+      </c>
+      <c r="F139" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>1758616844.86792</v>
+      </c>
+      <c r="B140" t="n">
+        <v>1758616845.86792</v>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>2025-09-23 14:10:44</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="E140" t="n">
+        <v>69.86247253417969</v>
+      </c>
+      <c r="F140" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>1758616845.86792</v>
+      </c>
+      <c r="B141" t="n">
+        <v>1758616846.86792</v>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>2025-09-23 14:10:45</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>sad</t>
+        </is>
+      </c>
+      <c r="E141" t="n">
+        <v>142.5854797363281</v>
+      </c>
+      <c r="F141" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>1758616846.86792</v>
+      </c>
+      <c r="B142" t="n">
+        <v>1758616847.86792</v>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>2025-09-23 14:10:46</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>angry</t>
+        </is>
+      </c>
+      <c r="E142" t="n">
+        <v>214.2159423828125</v>
+      </c>
+      <c r="F142" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>1758616997.86792</v>
+      </c>
+      <c r="B143" t="n">
+        <v>1758616998.86792</v>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>2025-09-23 14:13:17</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>happy</t>
+        </is>
+      </c>
+      <c r="E143" t="n">
+        <v>383.7858581542969</v>
+      </c>
+      <c r="F143" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>1758616998.86792</v>
+      </c>
+      <c r="B144" t="n">
+        <v>1758616999.86792</v>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>2025-09-23 14:13:18</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>happy</t>
+        </is>
+      </c>
+      <c r="E144" t="n">
+        <v>326.72119140625</v>
+      </c>
+      <c r="F144" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>1758616999.86792</v>
+      </c>
+      <c r="B145" t="n">
+        <v>1758617000.86792</v>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>2025-09-23 14:13:19</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>angry</t>
+        </is>
+      </c>
+      <c r="E145" t="n">
+        <v>124.3058013916016</v>
+      </c>
+      <c r="F145" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>1758617005.86792</v>
+      </c>
+      <c r="B146" t="n">
+        <v>1758617006.86792</v>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>2025-09-23 14:13:25</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="E146" t="n">
+        <v>74.89399719238281</v>
+      </c>
+      <c r="F146" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>1758617006.86792</v>
+      </c>
+      <c r="B147" t="n">
+        <v>1758617007.86792</v>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>2025-09-23 14:13:26</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="E147" t="n">
+        <v>74.99298095703125</v>
+      </c>
+      <c r="F147" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>1758617007.86792</v>
+      </c>
+      <c r="B148" t="n">
+        <v>1758617008.86792</v>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>2025-09-23 14:13:27</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="E148" t="n">
+        <v>74.79771423339844</v>
+      </c>
+      <c r="F148" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="n">
+        <v>1758617008.86792</v>
+      </c>
+      <c r="B149" t="n">
+        <v>1758617009.86792</v>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>2025-09-23 14:13:28</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>angry</t>
+        </is>
+      </c>
+      <c r="E149" t="n">
+        <v>105.0845947265625</v>
+      </c>
+      <c r="F149" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="n">
+        <v>1758617009.86792</v>
+      </c>
+      <c r="B150" t="n">
+        <v>1758617010.86792</v>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>2025-09-23 14:13:29</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="E150" t="n">
+        <v>73.69595336914062</v>
+      </c>
+      <c r="F150" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="n">
+        <v>1758617010.86792</v>
+      </c>
+      <c r="B151" t="n">
+        <v>1758617011.86792</v>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>2025-09-23 14:13:30</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>sad</t>
+        </is>
+      </c>
+      <c r="E151" t="n">
+        <v>102.4135131835938</v>
+      </c>
+      <c r="F151" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="n">
+        <v>1758617011.86792</v>
+      </c>
+      <c r="B152" t="n">
+        <v>1758617012.86792</v>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>2025-09-23 14:13:31</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="E152" t="n">
+        <v>71.93871307373047</v>
+      </c>
+      <c r="F152" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="n">
+        <v>1758617012.86792</v>
+      </c>
+      <c r="B153" t="n">
+        <v>1758617013.86792</v>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>2025-09-23 14:13:32</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="E153" t="n">
+        <v>67.41372680664062</v>
+      </c>
+      <c r="F153" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="n">
+        <v>1758617013.86792</v>
+      </c>
+      <c r="B154" t="n">
+        <v>1758617014.86792</v>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>2025-09-23 14:13:33</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>sad</t>
+        </is>
+      </c>
+      <c r="E154" t="n">
+        <v>96.3497314453125</v>
+      </c>
+      <c r="F154" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="n">
+        <v>1758617014.86792</v>
+      </c>
+      <c r="B155" t="n">
+        <v>1758617015.86792</v>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>2025-09-23 14:13:34</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="E155" t="n">
+        <v>67.60368347167969</v>
+      </c>
+      <c r="F155" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="n">
+        <v>1758617015.86792</v>
+      </c>
+      <c r="B156" t="n">
+        <v>1758617016.86792</v>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>2025-09-23 14:13:35</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>happy</t>
+        </is>
+      </c>
+      <c r="E156" t="n">
+        <v>72.53501892089844</v>
+      </c>
+      <c r="F156" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="n">
+        <v>1758617016.86792</v>
+      </c>
+      <c r="B157" t="n">
+        <v>1758617017.86792</v>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>2025-09-23 14:13:36</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>happy</t>
+        </is>
+      </c>
+      <c r="E157" t="n">
+        <v>295.9620361328125</v>
+      </c>
+      <c r="F157" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="n">
+        <v>1758617017.86792</v>
+      </c>
+      <c r="B158" t="n">
+        <v>1758617018.86792</v>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>2025-09-23 14:13:37</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>happy</t>
+        </is>
+      </c>
+      <c r="E158" t="n">
+        <v>178.3702850341797</v>
+      </c>
+      <c r="F158" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="n">
+        <v>1758617018.86792</v>
+      </c>
+      <c r="B159" t="n">
+        <v>1758617019.86792</v>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>2025-09-23 14:13:38</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>sad</t>
+        </is>
+      </c>
+      <c r="E159" t="n">
+        <v>396.5366516113281</v>
+      </c>
+      <c r="F159" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="n">
+        <v>1758617019.86792</v>
+      </c>
+      <c r="B160" t="n">
+        <v>1758617020.86792</v>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>2025-09-23 14:13:39</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="E160" t="n">
+        <v>69.74588012695312</v>
+      </c>
+      <c r="F160" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="n">
+        <v>1758617021.86792</v>
+      </c>
+      <c r="B161" t="n">
+        <v>1758617022.86792</v>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>2025-09-23 14:13:41</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="E161" t="n">
+        <v>49.41690444946289</v>
+      </c>
+      <c r="F161" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="n">
+        <v>1758617022.86792</v>
+      </c>
+      <c r="B162" t="n">
+        <v>1758617023.86792</v>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>2025-09-23 14:13:42</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>angry</t>
+        </is>
+      </c>
+      <c r="E162" t="n">
+        <v>168.7946472167969</v>
+      </c>
+      <c r="F162" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="n">
+        <v>1758617023.86792</v>
+      </c>
+      <c r="B163" t="n">
+        <v>1758617024.86792</v>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>2025-09-23 14:13:43</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="E163" t="n">
+        <v>65.7181396484375</v>
+      </c>
+      <c r="F163" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="n">
+        <v>1758617030.86792</v>
+      </c>
+      <c r="B164" t="n">
+        <v>1758617031.86792</v>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>2025-09-23 14:13:50</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>sad</t>
+        </is>
+      </c>
+      <c r="E164" t="n">
+        <v>225.7070007324219</v>
+      </c>
+      <c r="F164" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="n">
+        <v>1758617031.86792</v>
+      </c>
+      <c r="B165" t="n">
+        <v>1758617032.86792</v>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>2025-09-23 14:13:51</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="E165" t="n">
+        <v>60.07776641845703</v>
+      </c>
+      <c r="F165" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="n">
+        <v>1758617032.86792</v>
+      </c>
+      <c r="B166" t="n">
+        <v>1758617033.86792</v>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>2025-09-23 14:13:52</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>sad</t>
+        </is>
+      </c>
+      <c r="E166" t="n">
+        <v>289.5344848632812</v>
+      </c>
+      <c r="F166" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="n">
+        <v>1758617037.86792</v>
+      </c>
+      <c r="B167" t="n">
+        <v>1758617038.86792</v>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>2025-09-23 14:13:57</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>happy</t>
+        </is>
+      </c>
+      <c r="E167" t="n">
+        <v>229.1356658935547</v>
+      </c>
+      <c r="F167" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="n">
+        <v>1758617038.86792</v>
+      </c>
+      <c r="B168" t="n">
+        <v>1758617039.86792</v>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>2025-09-23 14:13:58</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>happy</t>
+        </is>
+      </c>
+      <c r="E168" t="n">
+        <v>184.0693054199219</v>
+      </c>
+      <c r="F168" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="n">
+        <v>1758617039.86792</v>
+      </c>
+      <c r="B169" t="n">
+        <v>1758617040.86792</v>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>2025-09-23 14:13:59</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>sad</t>
+        </is>
+      </c>
+      <c r="E169" t="n">
+        <v>83.71351623535156</v>
+      </c>
+      <c r="F169" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="n">
+        <v>1758617040.86792</v>
+      </c>
+      <c r="B170" t="n">
+        <v>1758617041.86792</v>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>2025-09-23 14:14:00</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>happy</t>
+        </is>
+      </c>
+      <c r="E170" t="n">
+        <v>163.7433624267578</v>
+      </c>
+      <c r="F170" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="n">
+        <v>1758617041.86792</v>
+      </c>
+      <c r="B171" t="n">
+        <v>1758617042.86792</v>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>2025-09-23 14:14:01</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>happy</t>
+        </is>
+      </c>
+      <c r="E171" t="n">
+        <v>137.9584045410156</v>
+      </c>
+      <c r="F171" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="n">
+        <v>1758617042.86792</v>
+      </c>
+      <c r="B172" t="n">
+        <v>1758617043.86792</v>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>2025-09-23 14:14:02</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>surprise</t>
+        </is>
+      </c>
+      <c r="E172" t="n">
+        <v>82.90483856201172</v>
+      </c>
+      <c r="F172" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="n">
+        <v>1758617043.86792</v>
+      </c>
+      <c r="B173" t="n">
+        <v>1758617044.86792</v>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>2025-09-23 14:14:03</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>happy</t>
+        </is>
+      </c>
+      <c r="E173" t="n">
+        <v>170.7548522949219</v>
+      </c>
+      <c r="F173" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="n">
+        <v>1758617044.86792</v>
+      </c>
+      <c r="B174" t="n">
+        <v>1758617045.86792</v>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>2025-09-23 14:14:04</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>happy</t>
+        </is>
+      </c>
+      <c r="E174" t="n">
+        <v>329.0781860351562</v>
+      </c>
+      <c r="F174" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="n">
+        <v>1758617047.86792</v>
+      </c>
+      <c r="B175" t="n">
+        <v>1758617048.86792</v>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>2025-09-23 14:14:07</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>angry</t>
+        </is>
+      </c>
+      <c r="E175" t="n">
+        <v>62.6722412109375</v>
+      </c>
+      <c r="F175" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="n">
+        <v>1758617048.86792</v>
+      </c>
+      <c r="B176" t="n">
+        <v>1758617049.86792</v>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>2025-09-23 14:14:08</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>sad</t>
+        </is>
+      </c>
+      <c r="E176" t="n">
+        <v>129.0305938720703</v>
+      </c>
+      <c r="F176" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="n">
+        <v>1758617049.86792</v>
+      </c>
+      <c r="B177" t="n">
+        <v>1758617050.86792</v>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>2025-09-23 14:14:09</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>sad</t>
+        </is>
+      </c>
+      <c r="E177" t="n">
+        <v>147.0525665283203</v>
+      </c>
+      <c r="F177" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="n">
+        <v>1758617050.86792</v>
+      </c>
+      <c r="B178" t="n">
+        <v>1758617051.86792</v>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>2025-09-23 14:14:10</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>sad</t>
+        </is>
+      </c>
+      <c r="E178" t="n">
+        <v>83.89710998535156</v>
+      </c>
+      <c r="F178" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="n">
+        <v>1758617051.86792</v>
+      </c>
+      <c r="B179" t="n">
+        <v>1758617052.86792</v>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>2025-09-23 14:14:11</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="E179" t="n">
+        <v>54.33208465576172</v>
+      </c>
+      <c r="F179" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="n">
+        <v>1758617059.86792</v>
+      </c>
+      <c r="B180" t="n">
+        <v>1758617060.86792</v>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>2025-09-23 14:14:19</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>fear</t>
+        </is>
+      </c>
+      <c r="E180" t="n">
+        <v>125.3661346435547</v>
+      </c>
+      <c r="F180" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="n">
+        <v>1758617060.86792</v>
+      </c>
+      <c r="B181" t="n">
+        <v>1758617061.86792</v>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>2025-09-23 14:14:20</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>happy</t>
+        </is>
+      </c>
+      <c r="E181" t="n">
+        <v>60.46163558959961</v>
+      </c>
+      <c r="F181" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="n">
+        <v>1758617061.86792</v>
+      </c>
+      <c r="B182" t="n">
+        <v>1758617062.86792</v>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>2025-09-23 14:14:21</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>sad</t>
+        </is>
+      </c>
+      <c r="E182" t="n">
+        <v>196.2924041748047</v>
+      </c>
+      <c r="F182" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="n">
+        <v>1758617063.86792</v>
+      </c>
+      <c r="B183" t="n">
+        <v>1758617064.86792</v>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>2025-09-23 14:14:23</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="E183" t="n">
+        <v>73.19895172119141</v>
+      </c>
+      <c r="F183" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="n">
+        <v>1758617071.86792</v>
+      </c>
+      <c r="B184" t="n">
+        <v>1758617072.86792</v>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>2025-09-23 14:14:31</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>happy</t>
+        </is>
+      </c>
+      <c r="E184" t="n">
+        <v>130.6637573242188</v>
+      </c>
+      <c r="F184" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="n">
+        <v>1758617072.86792</v>
+      </c>
+      <c r="B185" t="n">
+        <v>1758617073.86792</v>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>2025-09-23 14:14:32</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="E185" t="n">
+        <v>74.08221435546875</v>
+      </c>
+      <c r="F185" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="n">
+        <v>1758617073.86792</v>
+      </c>
+      <c r="B186" t="n">
+        <v>1758617074.86792</v>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>2025-09-23 14:14:33</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="E186" t="n">
+        <v>73.29237365722656</v>
+      </c>
+      <c r="F186" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="n">
+        <v>1758617074.86792</v>
+      </c>
+      <c r="B187" t="n">
+        <v>1758617075.86792</v>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>2025-09-23 14:14:34</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="E187" t="n">
+        <v>74.56748962402344</v>
+      </c>
+      <c r="F187" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="n">
+        <v>1758617075.86792</v>
+      </c>
+      <c r="B188" t="n">
+        <v>1758617076.86792</v>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>2025-09-23 14:14:35</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="E188" t="n">
+        <v>74.92311859130859</v>
+      </c>
+      <c r="F188" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="n">
+        <v>1758617076.86792</v>
+      </c>
+      <c r="B189" t="n">
+        <v>1758617077.86792</v>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>2025-09-23 14:14:36</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="E189" t="n">
+        <v>74.81423950195312</v>
+      </c>
+      <c r="F189" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="n">
+        <v>1758617077.86792</v>
+      </c>
+      <c r="B190" t="n">
+        <v>1758617078.86792</v>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>2025-09-23 14:14:37</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="E190" t="n">
+        <v>69.18940734863281</v>
+      </c>
+      <c r="F190" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="n">
+        <v>1758617078.86792</v>
+      </c>
+      <c r="B191" t="n">
+        <v>1758617079.86792</v>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>2025-09-23 14:14:38</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="E191" t="n">
+        <v>74.04542541503906</v>
+      </c>
+      <c r="F191" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="n">
+        <v>1758617079.86792</v>
+      </c>
+      <c r="B192" t="n">
+        <v>1758617080.86792</v>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>2025-09-23 14:14:39</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="E192" t="n">
+        <v>74.45384216308594</v>
+      </c>
+      <c r="F192" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="n">
+        <v>1758617080.86792</v>
+      </c>
+      <c r="B193" t="n">
+        <v>1758617081.86792</v>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>2025-09-23 14:14:40</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="E193" t="n">
+        <v>73.0140380859375</v>
+      </c>
+      <c r="F193" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="n">
+        <v>1758617081.86792</v>
+      </c>
+      <c r="B194" t="n">
+        <v>1758617082.86792</v>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>2025-09-23 14:14:41</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="E194" t="n">
+        <v>64.69374084472656</v>
+      </c>
+      <c r="F194" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="n">
+        <v>1758617082.86792</v>
+      </c>
+      <c r="B195" t="n">
+        <v>1758617083.86792</v>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>2025-09-23 14:14:42</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>happy</t>
+        </is>
+      </c>
+      <c r="E195" t="n">
+        <v>177.3928070068359</v>
+      </c>
+      <c r="F195" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="n">
+        <v>1758617083.86792</v>
+      </c>
+      <c r="B196" t="n">
+        <v>1758617084.86792</v>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>2025-09-23 14:14:43</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="E196" t="n">
+        <v>69.10734558105469</v>
+      </c>
+      <c r="F196" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="n">
+        <v>1758617084.86792</v>
+      </c>
+      <c r="B197" t="n">
+        <v>1758617085.86792</v>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>2025-09-23 14:14:44</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>happy</t>
+        </is>
+      </c>
+      <c r="E197" t="n">
+        <v>155.6945953369141</v>
+      </c>
+      <c r="F197" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="n">
+        <v>1758617085.86792</v>
+      </c>
+      <c r="B198" t="n">
+        <v>1758617086.86792</v>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>2025-09-23 14:14:45</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>sad</t>
+        </is>
+      </c>
+      <c r="E198" t="n">
+        <v>285.4476928710938</v>
+      </c>
+      <c r="F198" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="n">
+        <v>1758617086.86792</v>
+      </c>
+      <c r="B199" t="n">
+        <v>1758617087.86792</v>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>2025-09-23 14:14:46</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>happy</t>
+        </is>
+      </c>
+      <c r="E199" t="n">
+        <v>56.10001373291016</v>
+      </c>
+      <c r="F199" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="n">
+        <v>1758617087.86792</v>
+      </c>
+      <c r="B200" t="n">
+        <v>1758617088.86792</v>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>2025-09-23 14:14:47</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>happy</t>
+        </is>
+      </c>
+      <c r="E200" t="n">
+        <v>313.6977233886719</v>
+      </c>
+      <c r="F200" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="n">
+        <v>1758617088.86792</v>
+      </c>
+      <c r="B201" t="n">
+        <v>1758617089.86792</v>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>2025-09-23 14:14:48</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="E201" t="n">
+        <v>62.51457977294922</v>
+      </c>
+      <c r="F201" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="n">
+        <v>1758617089.86792</v>
+      </c>
+      <c r="B202" t="n">
+        <v>1758617090.86792</v>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>2025-09-23 14:14:49</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>surprise</t>
+        </is>
+      </c>
+      <c r="E202" t="n">
+        <v>80.57656097412109</v>
+      </c>
+      <c r="F202" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="n">
+        <v>1758617090.86792</v>
+      </c>
+      <c r="B203" t="n">
+        <v>1758617091.86792</v>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>2025-09-23 14:14:50</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>surprise</t>
+        </is>
+      </c>
+      <c r="E203" t="n">
+        <v>184.2008972167969</v>
+      </c>
+      <c r="F203" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="n">
+        <v>1758617091.86792</v>
+      </c>
+      <c r="B204" t="n">
+        <v>1758617092.86792</v>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>2025-09-23 14:14:51</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>sad</t>
+        </is>
+      </c>
+      <c r="E204" t="n">
+        <v>199.6381225585938</v>
+      </c>
+      <c r="F204" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="n">
+        <v>1758617092.86792</v>
+      </c>
+      <c r="B205" t="n">
+        <v>1758617093.86792</v>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>2025-09-23 14:14:52</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>sad</t>
+        </is>
+      </c>
+      <c r="E205" t="n">
+        <v>106.1030502319336</v>
+      </c>
+      <c r="F205" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="n">
+        <v>1758617093.86792</v>
+      </c>
+      <c r="B206" t="n">
+        <v>1758617094.86792</v>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>2025-09-23 14:14:53</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>sad</t>
+        </is>
+      </c>
+      <c r="E206" t="n">
+        <v>394.3802795410156</v>
+      </c>
+      <c r="F206" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="n">
+        <v>1758617094.86792</v>
+      </c>
+      <c r="B207" t="n">
+        <v>1758617095.86792</v>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>2025-09-23 14:14:54</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>sad</t>
+        </is>
+      </c>
+      <c r="E207" t="n">
+        <v>191.3202667236328</v>
+      </c>
+      <c r="F207" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="n">
+        <v>1758617095.86792</v>
+      </c>
+      <c r="B208" t="n">
+        <v>1758617096.86792</v>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>2025-09-23 14:14:55</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>sad</t>
+        </is>
+      </c>
+      <c r="E208" t="n">
+        <v>268.1989135742188</v>
+      </c>
+      <c r="F208" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="n">
+        <v>1758617096.86792</v>
+      </c>
+      <c r="B209" t="n">
+        <v>1758617097.86792</v>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>2025-09-23 14:14:56</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>sad</t>
+        </is>
+      </c>
+      <c r="E209" t="n">
+        <v>219.7358093261719</v>
+      </c>
+      <c r="F209" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="n">
+        <v>1758617097.86792</v>
+      </c>
+      <c r="B210" t="n">
+        <v>1758617098.86792</v>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>2025-09-23 14:14:57</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>sad</t>
+        </is>
+      </c>
+      <c r="E210" t="n">
+        <v>259.017333984375</v>
+      </c>
+      <c r="F210" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="n">
+        <v>1758617098.86792</v>
+      </c>
+      <c r="B211" t="n">
+        <v>1758617099.86792</v>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>2025-09-23 14:14:58</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>sad</t>
+        </is>
+      </c>
+      <c r="E211" t="n">
+        <v>344.587158203125</v>
+      </c>
+      <c r="F211" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="n">
+        <v>1758617099.86792</v>
+      </c>
+      <c r="B212" t="n">
+        <v>1758617100.86792</v>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>2025-09-23 14:14:59</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>sad</t>
+        </is>
+      </c>
+      <c r="E212" t="n">
+        <v>193.489501953125</v>
+      </c>
+      <c r="F212" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="n">
+        <v>1758617100.86792</v>
+      </c>
+      <c r="B213" t="n">
+        <v>1758617101.86792</v>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>2025-09-23 14:15:00</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>sad</t>
+        </is>
+      </c>
+      <c r="E213" t="n">
+        <v>150.0688018798828</v>
+      </c>
+      <c r="F213" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="n">
+        <v>1758617101.86792</v>
+      </c>
+      <c r="B214" t="n">
+        <v>1758617102.86792</v>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>2025-09-23 14:15:01</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>sad</t>
+        </is>
+      </c>
+      <c r="E214" t="n">
+        <v>279.7330627441406</v>
+      </c>
+      <c r="F214" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="n">
+        <v>1758617116.86792</v>
+      </c>
+      <c r="B215" t="n">
+        <v>1758617117.86792</v>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>2025-09-23 14:15:16</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>sad</t>
+        </is>
+      </c>
+      <c r="E215" t="n">
+        <v>371.3163757324219</v>
+      </c>
+      <c r="F215" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="n">
+        <v>1758617117.86792</v>
+      </c>
+      <c r="B216" t="n">
+        <v>1758617118.86792</v>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>2025-09-23 14:15:17</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>sad</t>
+        </is>
+      </c>
+      <c r="E216" t="n">
+        <v>375.3470153808594</v>
+      </c>
+      <c r="F216" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="n">
+        <v>1758617120.86792</v>
+      </c>
+      <c r="B217" t="n">
+        <v>1758617121.86792</v>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>2025-09-23 14:15:20</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>sad</t>
+        </is>
+      </c>
+      <c r="E217" t="n">
+        <v>320.6473388671875</v>
+      </c>
+      <c r="F217" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="n">
+        <v>1758617121.86792</v>
+      </c>
+      <c r="B218" t="n">
+        <v>1758617122.86792</v>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>2025-09-23 14:15:21</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>sad</t>
+        </is>
+      </c>
+      <c r="E218" t="n">
+        <v>285.1334533691406</v>
+      </c>
+      <c r="F218" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="n">
+        <v>1758617122.86792</v>
+      </c>
+      <c r="B219" t="n">
+        <v>1758617123.86792</v>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>2025-09-23 14:15:22</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>sad</t>
+        </is>
+      </c>
+      <c r="E219" t="n">
+        <v>399.0593872070312</v>
+      </c>
+      <c r="F219" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="n">
+        <v>1758617123.86792</v>
+      </c>
+      <c r="B220" t="n">
+        <v>1758617124.86792</v>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>2025-09-23 14:15:23</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>sad</t>
+        </is>
+      </c>
+      <c r="E220" t="n">
+        <v>397.5211791992188</v>
+      </c>
+      <c r="F220" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="n">
+        <v>1758617124.86792</v>
+      </c>
+      <c r="B221" t="n">
+        <v>1758617125.86792</v>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>2025-09-23 14:15:24</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>sad</t>
+        </is>
+      </c>
+      <c r="E221" t="n">
+        <v>328.2131652832031</v>
+      </c>
+      <c r="F221" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="n">
+        <v>1758617125.86792</v>
+      </c>
+      <c r="B222" t="n">
+        <v>1758617126.86792</v>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>2025-09-23 14:15:25</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>sad</t>
+        </is>
+      </c>
+      <c r="E222" t="n">
+        <v>392.9476928710938</v>
+      </c>
+      <c r="F222" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="n">
+        <v>1758617126.86792</v>
+      </c>
+      <c r="B223" t="n">
+        <v>1758617127.86792</v>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>2025-09-23 14:15:26</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>sad</t>
+        </is>
+      </c>
+      <c r="E223" t="n">
+        <v>112.1724472045898</v>
+      </c>
+      <c r="F223" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="n">
+        <v>1758617127.86792</v>
+      </c>
+      <c r="B224" t="n">
+        <v>1758617128.86792</v>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>2025-09-23 14:15:27</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="E224" t="n">
+        <v>73.47002410888672</v>
+      </c>
+      <c r="F224" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="n">
+        <v>1758617128.86792</v>
+      </c>
+      <c r="B225" t="n">
+        <v>1758617129.86792</v>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>2025-09-23 14:15:28</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="E225" t="n">
+        <v>73.31942749023438</v>
+      </c>
+      <c r="F225" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="n">
+        <v>1758617129.86792</v>
+      </c>
+      <c r="B226" t="n">
+        <v>1758617130.86792</v>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>2025-09-23 14:15:29</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>sad</t>
+        </is>
+      </c>
+      <c r="E226" t="n">
+        <v>194.048095703125</v>
+      </c>
+      <c r="F226" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="n">
+        <v>1758617130.86792</v>
+      </c>
+      <c r="B227" t="n">
+        <v>1758617131.86792</v>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>2025-09-23 14:15:30</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>angry</t>
+        </is>
+      </c>
+      <c r="E227" t="n">
+        <v>178.8086700439453</v>
+      </c>
+      <c r="F227" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="n">
+        <v>1758617131.86792</v>
+      </c>
+      <c r="B228" t="n">
+        <v>1758617132.86792</v>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>2025-09-23 14:15:31</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="E228" t="n">
+        <v>72.04276275634766</v>
+      </c>
+      <c r="F228" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="n">
+        <v>1758617132.86792</v>
+      </c>
+      <c r="B229" t="n">
+        <v>1758617133.86792</v>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>2025-09-23 14:15:32</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="E229" t="n">
+        <v>74.29827880859375</v>
+      </c>
+      <c r="F229" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="n">
+        <v>1758617133.86792</v>
+      </c>
+      <c r="B230" t="n">
+        <v>1758617134.86792</v>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>2025-09-23 14:15:33</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="E230" t="n">
+        <v>70.07086181640625</v>
+      </c>
+      <c r="F230" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="n">
+        <v>1758617134.86792</v>
+      </c>
+      <c r="B231" t="n">
+        <v>1758617135.86792</v>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>2025-09-23 14:15:34</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="E231" t="n">
+        <v>63.78998565673828</v>
+      </c>
+      <c r="F231" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="n">
+        <v>1758617135.86792</v>
+      </c>
+      <c r="B232" t="n">
+        <v>1758617136.86792</v>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>2025-09-23 14:15:35</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="E232" t="n">
+        <v>73.18457794189453</v>
+      </c>
+      <c r="F232" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="n">
+        <v>1758617136.86792</v>
+      </c>
+      <c r="B233" t="n">
+        <v>1758617137.86792</v>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>2025-09-23 14:15:36</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="E233" t="n">
+        <v>73.22136688232422</v>
+      </c>
+      <c r="F233" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="n">
+        <v>1758617137.86792</v>
+      </c>
+      <c r="B234" t="n">
+        <v>1758617138.86792</v>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>2025-09-23 14:15:37</t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="E234" t="n">
+        <v>74.13180541992188</v>
+      </c>
+      <c r="F234" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="n">
+        <v>1758617138.86792</v>
+      </c>
+      <c r="B235" t="n">
+        <v>1758617139.86792</v>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>2025-09-23 14:15:38</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>sad</t>
+        </is>
+      </c>
+      <c r="E235" t="n">
+        <v>399.5108032226562</v>
+      </c>
+      <c r="F235" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="n">
+        <v>1758617139.86792</v>
+      </c>
+      <c r="B236" t="n">
+        <v>1758617140.86792</v>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>2025-09-23 14:15:39</t>
+        </is>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="E236" t="n">
+        <v>72.804443359375</v>
+      </c>
+      <c r="F236" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
